--- a/biology/Médecine/Lazare_Rivière/Lazare_Rivière.xlsx
+++ b/biology/Médecine/Lazare_Rivière/Lazare_Rivière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lazare_Rivi%C3%A8re</t>
+          <t>Lazare_Rivière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lazare Rivière  (Montpellier, 1589-1655) est un médecin français.
-Rivière (Lazarus Riverius) fut reçu docteur en 1611 et devint professeur à la Faculté de Montpellier en 1622 où il prit la chaire de Laurent Coudin qu'il conserva jusqu'à sa mort[1]. Il y acquit une grande réputation comme praticien. Il fut  conseiller et médecin du roi Louis XIII.
+Rivière (Lazarus Riverius) fut reçu docteur en 1611 et devint professeur à la Faculté de Montpellier en 1622 où il prit la chaire de Laurent Coudin qu'il conserva jusqu'à sa mort. Il y acquit une grande réputation comme praticien. Il fut  conseiller et médecin du roi Louis XIII.
 Ses ouvrages, principalement ses Institutiones medicae (Leips., 1655), ont longtemps servi de texte à l'enseignement. Sa Praxis medica (Paris, 1640) contient beaucoup d'indications thérapeutiques : on y trouve la formule de la potion anti-émétique nommée encore Potion de Rivière.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lazare_Rivi%C3%A8re</t>
+          <t>Lazare_Rivière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pro suprema laurea Apollinari quaestiones medicae Cardinales … Monopolii, 1611. (OCLC 252815538)
 Praxis medica. Paris, O. de Varennes, 1640 (OCLC 25900740)
